--- a/inst/extdata/CPTAC/label-free_CPTAC_annotation.xlsx
+++ b/inst/extdata/CPTAC/label-free_CPTAC_annotation.xlsx
@@ -39,9 +39,6 @@
     <t>lab</t>
   </si>
   <si>
-    <t>treat</t>
-  </si>
-  <si>
     <t>6A_1</t>
   </si>
   <si>
@@ -178,6 +175,9 @@
   </si>
   <si>
     <t>run</t>
+  </si>
+  <si>
+    <t>condition</t>
   </si>
 </sst>
 </file>
@@ -539,10 +539,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>5</v>
@@ -550,7 +550,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -561,7 +561,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -583,7 +583,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -594,7 +594,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -616,7 +616,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
@@ -627,7 +627,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
@@ -638,7 +638,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
@@ -649,7 +649,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -660,7 +660,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -671,7 +671,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -682,7 +682,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
@@ -693,7 +693,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
@@ -704,7 +704,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
@@ -715,7 +715,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
@@ -726,7 +726,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
@@ -737,7 +737,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
@@ -748,7 +748,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>2</v>
@@ -759,7 +759,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>2</v>
@@ -770,7 +770,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
         <v>2</v>
@@ -792,7 +792,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
         <v>2</v>
@@ -803,7 +803,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
         <v>2</v>
@@ -814,7 +814,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
         <v>2</v>
@@ -825,7 +825,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
         <v>2</v>
@@ -836,7 +836,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
         <v>2</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
@@ -858,7 +858,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -880,7 +880,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
@@ -891,7 +891,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
@@ -902,7 +902,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
@@ -913,7 +913,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
@@ -924,7 +924,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
@@ -935,7 +935,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
@@ -946,7 +946,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B38" t="s">
         <v>4</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B39" t="s">
         <v>4</v>
@@ -968,7 +968,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B40" t="s">
         <v>4</v>
@@ -979,7 +979,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B41" t="s">
         <v>4</v>
@@ -990,7 +990,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B42" t="s">
         <v>4</v>
@@ -1001,7 +1001,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B43" t="s">
         <v>4</v>
@@ -1012,7 +1012,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B44" t="s">
         <v>4</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B45" t="s">
         <v>4</v>
@@ -1034,7 +1034,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B46" t="s">
         <v>4</v>

--- a/inst/extdata/CPTAC/label-free_CPTAC_annotation.xlsx
+++ b/inst/extdata/CPTAC/label-free_CPTAC_annotation.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="27629"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="100" windowWidth="20540" windowHeight="14580"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="56">
   <si>
     <t>6A</t>
   </si>
@@ -178,6 +178,15 @@
   </si>
   <si>
     <t>condition</t>
+  </si>
+  <si>
+    <t>LTQ-Orbitrap_86</t>
+  </si>
+  <si>
+    <t>LTQ-OrbitrapO_65</t>
+  </si>
+  <si>
+    <t>LTQ-OrbitrapW_56</t>
   </si>
 </sst>
 </file>
@@ -532,12 +541,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
@@ -548,499 +558,499 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
       </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
       </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>50</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
       </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
       </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
       </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
       </c>
-      <c r="C17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
       </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
       </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>2</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>2</v>
       </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="C21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>25</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
       </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>26</v>
       </c>
       <c r="B23" t="s">
         <v>2</v>
       </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="C23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>27</v>
       </c>
       <c r="B24" t="s">
         <v>2</v>
       </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="C24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>28</v>
       </c>
       <c r="B25" t="s">
         <v>2</v>
       </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="C25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>29</v>
       </c>
       <c r="B26" t="s">
         <v>2</v>
       </c>
-      <c r="C26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>30</v>
       </c>
       <c r="B27" t="s">
         <v>2</v>
       </c>
-      <c r="C27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="C27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>31</v>
       </c>
       <c r="B28" t="s">
         <v>2</v>
       </c>
-      <c r="C28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="C28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>32</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
       </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="C29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>33</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
       </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="C30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>34</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
       </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="C31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>35</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
       </c>
-      <c r="C32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="C32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>36</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
       </c>
-      <c r="C33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="C33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>37</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
       </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="C34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>38</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
       </c>
-      <c r="C35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="C35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>39</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
       </c>
-      <c r="C36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="C36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>40</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
       </c>
-      <c r="C37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="C37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>41</v>
       </c>
       <c r="B38" t="s">
         <v>4</v>
       </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="C38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>42</v>
       </c>
       <c r="B39" t="s">
         <v>4</v>
       </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="C39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>43</v>
       </c>
       <c r="B40" t="s">
         <v>4</v>
       </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="C40" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>44</v>
       </c>
       <c r="B41" t="s">
         <v>4</v>
       </c>
-      <c r="C41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="C41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>45</v>
       </c>
       <c r="B42" t="s">
         <v>4</v>
       </c>
-      <c r="C42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="C42" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>46</v>
       </c>
       <c r="B43" t="s">
         <v>4</v>
       </c>
-      <c r="C43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="C43" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>47</v>
       </c>
       <c r="B44" t="s">
         <v>4</v>
       </c>
-      <c r="C44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="C44" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>48</v>
       </c>
       <c r="B45" t="s">
         <v>4</v>
       </c>
-      <c r="C45">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="C45" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>49</v>
       </c>
       <c r="B46" t="s">
         <v>4</v>
       </c>
-      <c r="C46">
-        <v>3</v>
+      <c r="C46" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
